--- a/gold-standard/GOLD-STANDARD-15PROTS22TRANSCRIPTS-GOterms.xlsx
+++ b/gold-standard/GOLD-STANDARD-15PROTS22TRANSCRIPTS-GOterms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>A4ZDL6</t>
   </si>
@@ -158,6 +158,57 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>UNIPROT-KB-DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Defensin-1</t>
+  </si>
+  <si>
+    <t>Defensin-2</t>
+  </si>
+  <si>
+    <t>Antifungal protein ginkbilobin-2 (Antimicrobial protein Gnk2-1)</t>
+  </si>
+  <si>
+    <t>Alpha-bisabolene synthase (EC 4.2.3.38) ((E)-alpha-bisabolene synthase) (AgfEabis)</t>
+  </si>
+  <si>
+    <t>Chalcone synthase (EC 2.3.1.74) (Naringenin-chalcone synthase)</t>
+  </si>
+  <si>
+    <t>Photosystem II protein D1 (PSII D1 protein) (EC 1.10.3.9) (Photosystem II Q(B) protein)</t>
+  </si>
+  <si>
+    <t>Pectate lyase 1 (EC 4.2.2.2) (Major pollen allergen Jun a 1) (allergen Jun a 1)</t>
+  </si>
+  <si>
+    <t>Pathogenesis-related 5 protein Jun a 3.0101 (PR-5 protein Jun a 3.0101) (Pollen allergen Jun a 3) (allergen Jun a 3.0101)</t>
+  </si>
+  <si>
+    <t>Pinosylvin synthase (EC 2.3.1.146) (Dihydropinosylvin synthase) (Pinosylvin-forming stilbene synthase) (Stilbene synthase) (STS)</t>
+  </si>
+  <si>
+    <t>Bifunctional abietadiene synthase, chloroplastic ((-)-abieta-7(8),13(14)-diene synthase) (Abietadiene cyclase) (AgAS) (Agggabi) [Includes: Abietadiene synthase (EC 4.2.3.18) (Neoabietadiene synthase) (EC 4.2.3.132); Copalyl diphosphate synthase (EC 5.5.1.12)]</t>
+  </si>
+  <si>
+    <t>Taxadiene synthase (EC 4.2.3.17) (Taxa-4(5),11(12)-diene synthase)</t>
+  </si>
+  <si>
+    <t>Endochitinase 4 (EC 3.2.1.14) (Chitinase class IV) (CJP-4) (allergen Cry j Chitinase)</t>
+  </si>
+  <si>
+    <t>Phenylalanine aminomutase (L-beta-phenylalanine forming) (EC 5.4.3.10) (Phenylalanine ammonia-lyase) (EC 4.3.1.24)</t>
+  </si>
+  <si>
+    <t>Taxadiene 5-alpha hydroxylase (EC 1.14.14.176)</t>
+  </si>
+  <si>
+    <t>Phenylcoumaran benzylic ether reductase PT1 (PCBER-Pt1) (EC 1.23.1.-) (PtPCBER)</t>
+  </si>
+  <si>
+    <t>Vicilin Pin k 2.0101 (7S globulin) (7S seed storage protein) (Allergen Pin k 2) (Vicilin-type seed storage protein) (allergen Pin k 2.0101)</t>
   </si>
 </sst>
 </file>
@@ -980,339 +1031,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="104.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="104.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
       <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
       <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
       <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
       <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
       <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
       <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
       <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
       <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
       <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
       <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
     </row>
